--- a/05-поиск-решений/3-поиск-решений.xlsx
+++ b/05-поиск-решений/3-поиск-решений.xlsx
@@ -1,60 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виктория\Desktop\1ppt\Advance_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Advanced Excel - Course\05-поиск-решений\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654846D7-4B9A-48A7-96C5-5303359C7F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{82D45A4C-717C-4A8F-9906-65D4B502DF46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
+    <sheet name="решение" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">решение!$B$7:$E$7</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">решение!$B$7:$E$7</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">решение!$B$8:$E$8</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">решение!$F$9</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">решение!#REF!</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">решение!$F$7</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">решение!$B$4:$E$4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">решение!$B$11</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">решение!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>ТВ</t>
   </si>
@@ -114,11 +153,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -345,7 +384,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -363,10 +402,10 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,7 +438,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -411,7 +450,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -726,26 +765,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF02807E-27CD-45EC-AFFF-640D858FD5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -760,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -780,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -800,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -820,10 +859,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="11" t="s">
         <v>0</v>
@@ -841,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -854,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
@@ -876,7 +915,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
@@ -901,8 +940,206 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>500</v>
+      </c>
+      <c r="C3" s="7">
+        <v>200</v>
+      </c>
+      <c r="D3" s="7">
+        <v>250</v>
+      </c>
+      <c r="E3" s="8">
+        <v>120</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2750</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="19">
+        <f>SUM(B7:E7)</f>
+        <v>11350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13">
+        <f>B7/B3</f>
+        <v>5.5</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" ref="C8:D8" si="0">C7/C3</f>
+        <v>25</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <f>E7/E3</f>
+        <v>30</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14">
+        <f>B8*B2</f>
+        <v>275000</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" ref="C9:E9" si="1">C8*C2</f>
+        <v>625000</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="F9" s="21">
+        <f>SUM(B9:E9)</f>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
